--- a/Assets/Resources/Scene1.xlsx
+++ b/Assets/Resources/Scene1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
   <si>
     <t>enemyname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,56 @@
   </si>
   <si>
     <t>orc</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>werewolf</t>
+  </si>
+  <si>
+    <t>zombie</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_dragon</t>
   </si>
 </sst>
 </file>
@@ -155,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D7" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:D7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:D23" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:D23">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
@@ -464,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -507,34 +557,298 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -543,7 +857,7 @@
       <formula1>"orc,ghost"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>"orc,ghost,dragon,mummy,skeleton,werewolf,zombie"</formula1>
+      <formula1>"orc,ghost,dragon,mummy,skeleton,werewolf,zombie,boss_dragon"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
